--- a/server/data/customer/QBO-Customer.xlsx
+++ b/server/data/customer/QBO-Customer.xlsx
@@ -1,47 +1,1168 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="555" windowWidth="19815" windowHeight="9405"/>
+  </bookViews>
   <sheets>
-    <sheet name="ModifiedSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Customer Contact List" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="314">
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Phone Numbers</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Billing Address</t>
+  </si>
+  <si>
+    <t>Shipping Address</t>
+  </si>
+  <si>
+    <t>VAT Registration No. of Customer</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Company Name</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>Delivery Method</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Taxable</t>
+  </si>
+  <si>
+    <t>Credit Card No.</t>
+  </si>
+  <si>
+    <t>CC Expires</t>
+  </si>
+  <si>
+    <t>Payment Method</t>
+  </si>
+  <si>
+    <t>Terms</t>
+  </si>
+  <si>
+    <t>Customer Type</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Billing Street</t>
+  </si>
+  <si>
+    <t>Billing City</t>
+  </si>
+  <si>
+    <t>Billing County</t>
+  </si>
+  <si>
+    <t>Billing postal code</t>
+  </si>
+  <si>
+    <t>Billing Country</t>
+  </si>
+  <si>
+    <t>Shipping Street</t>
+  </si>
+  <si>
+    <t>Shipping City</t>
+  </si>
+  <si>
+    <t>Shipping Province/Region/State</t>
+  </si>
+  <si>
+    <t>Shipping Postal code</t>
+  </si>
+  <si>
+    <t>Shipping Country</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>10 For 230_20057797_PLUS_10</t>
+  </si>
+  <si>
+    <t>mbsoultions@gmail.com</t>
+  </si>
+  <si>
+    <t>Nokuthula Shabangu</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Shabangu</t>
+  </si>
+  <si>
+    <t>Nokuthula</t>
+  </si>
+  <si>
+    <t>10 For 230_20057797_PLUS_3</t>
+  </si>
+  <si>
+    <t>10 For 230_20057797_PLUS_4</t>
+  </si>
+  <si>
+    <t>10 For 230_20057797_PLUS_5</t>
+  </si>
+  <si>
+    <t>10 For 230_20057797_PLUS_6</t>
+  </si>
+  <si>
+    <t>10 For 230_20057797_PLUS_7</t>
+  </si>
+  <si>
+    <t>10 For 230_20057797_PLUS_8</t>
+  </si>
+  <si>
+    <t>10 For 230_20057797_PLUS_9</t>
+  </si>
+  <si>
+    <t>A2Z Tiles</t>
+  </si>
+  <si>
+    <t>Phone: 0114531815</t>
+  </si>
+  <si>
+    <t>admin@a2ztiles.co.za</t>
+  </si>
+  <si>
+    <t>Stacey</t>
+  </si>
+  <si>
+    <t>A2Z Tiles_x000D_
+Edenvale</t>
+  </si>
+  <si>
+    <t>Akwande Inzuzo</t>
+  </si>
+  <si>
+    <t>Mr Hudson Mtsweni</t>
+  </si>
+  <si>
+    <t>Mtsweni</t>
+  </si>
+  <si>
+    <t>Hudson</t>
+  </si>
+  <si>
+    <t>Ansie</t>
+  </si>
+  <si>
+    <t>ansie@idea-media.co.za</t>
+  </si>
+  <si>
+    <t>Auto Interior</t>
+  </si>
+  <si>
+    <t>autointerior@polka.co.za</t>
+  </si>
+  <si>
+    <t>Auto Interior_x000D_
+5th Street_x000D_
+Wynberg, Sandton
+Wynberg
+Sandton</t>
+  </si>
+  <si>
+    <t>Auto Interior_x000D_
+5th Street_x000D_
+Wynberg, Sandton</t>
+  </si>
+  <si>
+    <t>Wynberg</t>
+  </si>
+  <si>
+    <t>Sandton</t>
+  </si>
+  <si>
+    <t>Beactress Business Enterprise</t>
+  </si>
+  <si>
+    <t>Phone: +27 826741076</t>
+  </si>
+  <si>
+    <t>mgwezan1@outlook.com</t>
+  </si>
+  <si>
+    <t>Abram Jonas Mahlangu</t>
+  </si>
+  <si>
+    <t>+27 826741076</t>
+  </si>
+  <si>
+    <t>Mahlangu</t>
+  </si>
+  <si>
+    <t>Abram Jonas</t>
+  </si>
+  <si>
+    <t>Blackrock Engineering (PTY) LTD</t>
+  </si>
+  <si>
+    <t>Blackrock Engineering (PTY) LTD_x000D_
+12 Botha Laan_x000D_
+Witbank, 1035
+Witbank 1035</t>
+  </si>
+  <si>
+    <t>Blackrock Engineering (PTY) LTD_x000D_
+12 Botha Laan_x000D_
+Witbank_x000D_
+1035
+Witbank 1035</t>
+  </si>
+  <si>
+    <t>Blackrock Engineering (PTY) LTD_x000D_
+12 Botha Laan_x000D_
+Witbank, 1035</t>
+  </si>
+  <si>
+    <t>Witbank</t>
+  </si>
+  <si>
+    <t>1035</t>
+  </si>
+  <si>
+    <t>Blackrock Engineering (PTY) LTD_x000D_
+12 Botha Laan_x000D_
+Witbank_x000D_
+1035</t>
+  </si>
+  <si>
+    <t>Bodacious Monitoring (Pty)Ltd</t>
+  </si>
+  <si>
+    <t>Phone: 0118232820</t>
+  </si>
+  <si>
+    <t>admin2@bodacious.co.za</t>
+  </si>
+  <si>
+    <t>Bodacious Monitoring (Pty)Ltd_x000D_
+Unit 6 13 Sovereign Drive_x000D_
+Route 21 Corporate Park_x000D_
+Irene, Pretoria_x000D_
+Vat number: 4270252721
+Vat number: 4270252721</t>
+  </si>
+  <si>
+    <t>Bodacious Monitoring (Pty)Ltd_x000D_
+Unit 6 13 Sovereign Drive_x000D_
+Route 21 Corporate Park_x000D_
+Irene, Pretoria_x000D_
+Vat number: 4270252721</t>
+  </si>
+  <si>
+    <t>Vat number:</t>
+  </si>
+  <si>
+    <t>4270252721</t>
+  </si>
+  <si>
+    <t>Bongani Malaza</t>
+  </si>
+  <si>
+    <t>Bright Idea Projects 112 CC</t>
+  </si>
+  <si>
+    <t>Phone: 0785659761</t>
+  </si>
+  <si>
+    <t>ralph@bipco.co.za</t>
+  </si>
+  <si>
+    <t>Ralph Admin Manager</t>
+  </si>
+  <si>
+    <t>Bright Idea Projects 112 CC_x000D_
+Unit 5 Winnipeg Street_x000D_
+Spartan, 1619_x000D_
+Johannesburg
+Spartan 1619</t>
+  </si>
+  <si>
+    <t>Bright Idea Projects 112 CC_x000D_
+Unit 5 Winnipeg Street_x000D_
+Spartan, 1619_x000D_
+Johannesburg</t>
+  </si>
+  <si>
+    <t>Spartan</t>
+  </si>
+  <si>
+    <t>1619</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>Capital Plumbing</t>
+  </si>
+  <si>
+    <t>melanie@capitalplumbing.co.za</t>
+  </si>
+  <si>
+    <t>Melanie</t>
+  </si>
+  <si>
+    <t>Daisy</t>
+  </si>
+  <si>
+    <t>DRD Steel Services t/a Madison Steel</t>
+  </si>
+  <si>
+    <t>Phone: 0118248351</t>
+  </si>
+  <si>
+    <t>moreen@drde.co.za</t>
+  </si>
+  <si>
+    <t>Maureen</t>
+  </si>
+  <si>
+    <t>DRD Enterprises_x000D_
+37 Mitchelson Road_x000D_
+Westwood_x000D_
+Boksburg
+Boksburg</t>
+  </si>
+  <si>
+    <t>DRD Steel Services t/s Madison Steel</t>
+  </si>
+  <si>
+    <t>DRD Enterprises_x000D_
+37 Mitchelson Road_x000D_
+Westwood_x000D_
+Boksburg</t>
+  </si>
+  <si>
+    <t>Boksburg</t>
+  </si>
+  <si>
+    <t>Dudu</t>
+  </si>
+  <si>
+    <t>Handson Tech</t>
+  </si>
+  <si>
+    <t>Phone: 0114622581</t>
+  </si>
+  <si>
+    <t>Phillip Haas</t>
+  </si>
+  <si>
+    <t>Hands Tech_x000D_
+988 on Meadowbrook, Unit 11_x000D_
+Jacaranda Avenue, Olivedale,_x000D_
+2158
+Jacaranda Avenue 2158
+Olivedale</t>
+  </si>
+  <si>
+    <t>Hands Tech_x000D_
+988 on Meadowbrook, Unit 11_x000D_
+Jacaranda Avenue, Olivedale,_x000D_
+2158</t>
+  </si>
+  <si>
+    <t>Jacaranda Avenue</t>
+  </si>
+  <si>
+    <t>2158</t>
+  </si>
+  <si>
+    <t>Olivedale</t>
+  </si>
+  <si>
+    <t>Haas</t>
+  </si>
+  <si>
+    <t>Phillip</t>
+  </si>
+  <si>
+    <t>Hyper Doors</t>
+  </si>
+  <si>
+    <t>Phone: 0280070104</t>
+  </si>
+  <si>
+    <t>nick@hyperdoors.co.za</t>
+  </si>
+  <si>
+    <t>Nick van den Berg</t>
+  </si>
+  <si>
+    <t>van den Berg</t>
+  </si>
+  <si>
+    <t>Nick</t>
+  </si>
+  <si>
+    <t>Igagu Enterprise (Pty) Ltd</t>
+  </si>
+  <si>
+    <t>Phone: 0130071367</t>
+  </si>
+  <si>
+    <t>riette@igagu.org</t>
+  </si>
+  <si>
+    <t>41 Voltargo Village_x000D_
+Wilge, Emalahleni
+Wilge
+Emalahleni</t>
+  </si>
+  <si>
+    <t>41 Voltargo Village_x000D_
+Wilge, Emalahleni</t>
+  </si>
+  <si>
+    <t>Wilge</t>
+  </si>
+  <si>
+    <t>Emalahleni</t>
+  </si>
+  <si>
+    <t>Ixion Network Solutions (Pty) Ltd</t>
+  </si>
+  <si>
+    <t>leeann@ixiom.co.za</t>
+  </si>
+  <si>
+    <t>Ixiom Network Solutions (Pty) Ltd_x000D_
+Cnr Michelle Avenue &amp; Jochem van Bruggen_x000D_
+No 2 The Lofts, Meyersdal_x000D_
+Alberton
+No 2 The Lofts
+Meyersdal</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>Ixiom Network Solutions (Pty) Ltd_x000D_
+Cnr Michelle Avenue &amp; Jochem van Bruggen_x000D_
+No 2 The Lofts, Meyersdal_x000D_
+Alberton</t>
+  </si>
+  <si>
+    <t>No 2 The Lofts</t>
+  </si>
+  <si>
+    <t>Meyersdal</t>
+  </si>
+  <si>
+    <t>Jan Pierewiet</t>
+  </si>
+  <si>
+    <t>Phone: 0828053565</t>
+  </si>
+  <si>
+    <t>info@jan-pierewiet.co.za</t>
+  </si>
+  <si>
+    <t>Vanessa Van Vollenhoven</t>
+  </si>
+  <si>
+    <t>Jan Piereweit_x000D_
+Jan Celliers Primary School_x000D_
+Lower Park Drive_x000D_
+Johannesburg
+Johannesburg</t>
+  </si>
+  <si>
+    <t>Jan Piereweit</t>
+  </si>
+  <si>
+    <t>Jan Piereweit_x000D_
+Jan Celliers Primary School_x000D_
+Lower Park Drive_x000D_
+Johannesburg</t>
+  </si>
+  <si>
+    <t>Johannesburg</t>
+  </si>
+  <si>
+    <t>Van Vollenhoven</t>
+  </si>
+  <si>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>LIT Africa (Pty) Ltd</t>
+  </si>
+  <si>
+    <t>Phone: 0113155444</t>
+  </si>
+  <si>
+    <t>stefanh@litafrica.co.za</t>
+  </si>
+  <si>
+    <t>Stefan Harth</t>
+  </si>
+  <si>
+    <t>LIT Africa (Pty) Ltd_x000D_
+Cube Workspace_x000D_
+1 Wedgewoodlink_x000D_
+Braynston
+Braynston</t>
+  </si>
+  <si>
+    <t>LIT Africa (Pty) Ltd_x000D_
+Cube Workspace_x000D_
+1 Wedgewoodlink_x000D_
+Braynston</t>
+  </si>
+  <si>
+    <t>Braynston</t>
+  </si>
+  <si>
+    <t>Harth</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Maelgwyn Mineral Services Africa (Pty) Lt</t>
+  </si>
+  <si>
+    <t>Phone: 0114740705</t>
+  </si>
+  <si>
+    <t>petro@maelgwynafrica.com</t>
+  </si>
+  <si>
+    <t>Steven Stone</t>
+  </si>
+  <si>
+    <t>Maelgwyn Mineral Services Africa (Pty) Lt_x000D_
+1331 Staal Road_x000D_
+Cnr Spokeshave &amp; Staal Street_x000D_
+Ext 2, Maraisburg
+Ext 2
+Maraisburg</t>
+  </si>
+  <si>
+    <t>Maelgwyn Mineral Services Africa (Pty) Lt_x000D_
+1331 Staal Road_x000D_
+Cnr Spokeshave &amp; Staal Street_x000D_
+Ext 2, Maraisburg</t>
+  </si>
+  <si>
+    <t>Ext 2</t>
+  </si>
+  <si>
+    <t>Maraisburg</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Steven</t>
+  </si>
+  <si>
+    <t>Masc Project</t>
+  </si>
+  <si>
+    <t>Phone: 0111000088</t>
+  </si>
+  <si>
+    <t>nabenem@mascsolutions.com</t>
+  </si>
+  <si>
+    <t>Nabene</t>
+  </si>
+  <si>
+    <t>Masc Projects_x000D_
+56B Ronald Avenue_x000D_
+Linbro Park_x000D_
+Johannesburg, 2090
+Johannesburg 2090</t>
+  </si>
+  <si>
+    <t>Masc Projects</t>
+  </si>
+  <si>
+    <t>Masc Projects_x000D_
+56B Ronald Avenue_x000D_
+Linbro Park_x000D_
+Johannesburg, 2090</t>
+  </si>
+  <si>
+    <t>2090</t>
+  </si>
+  <si>
+    <t>Masc Prop</t>
+  </si>
+  <si>
+    <t>Phone: 011 100 0088</t>
+  </si>
+  <si>
+    <t>Masc Prop_x000D_
+56B Ronald Avenue_x000D_
+Linbro Park
+Linbro Park</t>
+  </si>
+  <si>
+    <t>011 100 0088</t>
+  </si>
+  <si>
+    <t>Masc Prop_x000D_
+56B Ronald Avenue_x000D_
+Linbro Park</t>
+  </si>
+  <si>
+    <t>Linbro Park</t>
+  </si>
+  <si>
+    <t>Masungulo Yamatiko</t>
+  </si>
+  <si>
+    <t>Mr Getsemane</t>
+  </si>
+  <si>
+    <t>Mushroom Budds</t>
+  </si>
+  <si>
+    <t>Phone: 0126641340</t>
+  </si>
+  <si>
+    <t>miqualle@gmail.com</t>
+  </si>
+  <si>
+    <t>Miqualle</t>
+  </si>
+  <si>
+    <t>Mushroom Budds_x000D_
+111 Monument Avenue_x000D_
+Lyttelton Manor_x000D_
+Centurion
+Centurion</t>
+  </si>
+  <si>
+    <t>Mushroom Budds_x000D_
+111 Monument Avenue_x000D_
+Lyttelton Manor_x000D_
+Centurion</t>
+  </si>
+  <si>
+    <t>Centurion</t>
+  </si>
+  <si>
+    <t>POISEC</t>
+  </si>
+  <si>
+    <t>vuyo@poisec.co.za</t>
+  </si>
+  <si>
+    <t>Ms Vuyo Mbatha</t>
+  </si>
+  <si>
+    <t>POISEC_x000D_
+Vuyo Mbatha</t>
+  </si>
+  <si>
+    <t>Mbatha</t>
+  </si>
+  <si>
+    <t>Vuyo</t>
+  </si>
+  <si>
+    <t>Quadra Blocks (PTY) Ltd</t>
+  </si>
+  <si>
+    <t>Phone: 016 454 8358</t>
+  </si>
+  <si>
+    <t>chauntele@quadrablocks.co.za</t>
+  </si>
+  <si>
+    <t>Chauntelle Human</t>
+  </si>
+  <si>
+    <t>Quadra Blocks (PTY) Ltd_x000D_
+11 Tarentaal Avenue_x000D_
+Three Rivers East_x000D_
+Vereeniging
+Vereeniging</t>
+  </si>
+  <si>
+    <t>016 454 8358</t>
+  </si>
+  <si>
+    <t>Quadra Blocks (PTY) Ltd_x000D_
+11 Tarentaal Avenue_x000D_
+Three Rivers East_x000D_
+Vereeniging</t>
+  </si>
+  <si>
+    <t>Vereeniging</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Chauntelle</t>
+  </si>
+  <si>
+    <t>Rabomba Cleaning Products</t>
+  </si>
+  <si>
+    <t>rabomba@gmail.com</t>
+  </si>
+  <si>
+    <t>Rabomba Cleaning Products_x000D_
+Shop 8 Wildlife Estate_x000D_
+Pick N Pay Centre, Hoedspruit
+Pick N Pay Centre
+Hoedspruit</t>
+  </si>
+  <si>
+    <t>Rabomba Cleaning Products_x000D_
+Shop 8 Wildlife Estate_x000D_
+Pick N Pay Centre, Hoedspruit</t>
+  </si>
+  <si>
+    <t>Pick N Pay Centre</t>
+  </si>
+  <si>
+    <t>Hoedspruit</t>
+  </si>
+  <si>
+    <t>Rent-A-Property T/A Status Mark</t>
+  </si>
+  <si>
+    <t>Phone: 0116680100</t>
+  </si>
+  <si>
+    <t>genna@rentaproperty.co.za</t>
+  </si>
+  <si>
+    <t>Genna Bronkhorst</t>
+  </si>
+  <si>
+    <t>Rent-A-Property T/A Status Mark_x000D_
+Building 5, Suite 1_x000D_
+Ruimsig Office Estates_x000D_
+572 Hole-in-one- Road
+572 Hole-in-one- Road</t>
+  </si>
+  <si>
+    <t>Rent-A-Property T/A Status Mark_x000D_
+Building 5, Suite 1_x000D_
+Ruimsig Office Estates_x000D_
+572 Hole-in-one- Road</t>
+  </si>
+  <si>
+    <t>572 Hole-in-one- Road</t>
+  </si>
+  <si>
+    <t>Bronkhorst</t>
+  </si>
+  <si>
+    <t>Genna</t>
+  </si>
+  <si>
+    <t>SAAI Trading</t>
+  </si>
+  <si>
+    <t>Phone: 0614731733</t>
+  </si>
+  <si>
+    <t>krish@saaitrading.co.za</t>
+  </si>
+  <si>
+    <t>Krish Chetty</t>
+  </si>
+  <si>
+    <t>SAAI Trading_x000D_
+39 JF Kennedy Avenue_x000D_
+Bonaero Park_x000D_
+Kempton Park, 1619
+Kempton Park 1619</t>
+  </si>
+  <si>
+    <t>SAAI Trading_x000D_
+39 JF Kennedy Avenue_x000D_
+Bonaero Park_x000D_
+Kempton Park, 1619</t>
+  </si>
+  <si>
+    <t>Kempton Park</t>
+  </si>
+  <si>
+    <t>Chetty</t>
+  </si>
+  <si>
+    <t>Krish</t>
+  </si>
+  <si>
+    <t>Specialised Belting Products Pty Ltd</t>
+  </si>
+  <si>
+    <t>Phone: 0117934484</t>
+  </si>
+  <si>
+    <t>lok@icon.co.za</t>
+  </si>
+  <si>
+    <t>Clyde Lok</t>
+  </si>
+  <si>
+    <t>Specialised Belting Products Pty Ltd_x000D_
+3 Enkeldoring Street_x000D_
+Randparkridge Ext3_x000D_
+Randburg
+Randburg</t>
+  </si>
+  <si>
+    <t>Specialised Belting Products Pty Ltd_x000D_
+3 Enkeldoring Street_x000D_
+Randparkridge Ext3_x000D_
+Randburg</t>
+  </si>
+  <si>
+    <t>Randburg</t>
+  </si>
+  <si>
+    <t>Lok</t>
+  </si>
+  <si>
+    <t>Clyde</t>
+  </si>
+  <si>
+    <t>Sthembiso Nicolas Vilakazi</t>
+  </si>
+  <si>
+    <t>Mr Sthembiso Vilakazi</t>
+  </si>
+  <si>
+    <t>Sthembiso Nicolas Vilakazi_x000D_
+Sthembiso Vilakazi</t>
+  </si>
+  <si>
+    <t>Vilakazi</t>
+  </si>
+  <si>
+    <t>Sthembiso</t>
+  </si>
+  <si>
+    <t>SUPERGEL</t>
+  </si>
+  <si>
+    <t>amanda@supergel.co.za</t>
+  </si>
+  <si>
+    <t>THAT ENGINEERING PLACE CC T/A SUPERGEL</t>
+  </si>
+  <si>
+    <t>TauSadi Mining and Engineering Pty Ltd</t>
+  </si>
+  <si>
+    <t>Test cusrtomers</t>
+  </si>
+  <si>
+    <t>Phone: +10102034300</t>
+  </si>
+  <si>
+    <t>test@test.co.za</t>
+  </si>
+  <si>
+    <t>+10102034300</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>TG</t>
+  </si>
+  <si>
+    <t>Patience Hlabangwane_x000D_
+Kwa-Guqa Advise Office_x000D_
+Email: kwaguqa2022@gmail.com_x000D_
+Tel: 0695607491
+Tel: 0695607491</t>
+  </si>
+  <si>
+    <t>Patience Hlabangwane_x000D_
+Kwa-Guqa Advise Office_x000D_
+Email: kwaguqa2022@gmail.com_x000D_
+Tel: 0695607491</t>
+  </si>
+  <si>
+    <t>Tel:</t>
+  </si>
+  <si>
+    <t>0695607491</t>
+  </si>
+  <si>
+    <t>That Engineering Place t/a Supergel</t>
+  </si>
+  <si>
+    <t>Phone: 013 661 1180</t>
+  </si>
+  <si>
+    <t>Amanda Bates</t>
+  </si>
+  <si>
+    <t>That Engineering Place t/a Supergel_x000D_
+35 Rennie Road_x000D_
+Sundra
+Sundra</t>
+  </si>
+  <si>
+    <t>013 661 1180</t>
+  </si>
+  <si>
+    <t>That Engineering Place t/a Supergel_x000D_
+35 Rennie Road_x000D_
+Sundra</t>
+  </si>
+  <si>
+    <t>Sundra</t>
+  </si>
+  <si>
+    <t>Bates</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>The Practice</t>
+  </si>
+  <si>
+    <t>Phone: 0117820393</t>
+  </si>
+  <si>
+    <t>elaine@creativess.co.za</t>
+  </si>
+  <si>
+    <t>Elaine</t>
+  </si>
+  <si>
+    <t>The Practice_x000D_
+57 1st Avenue_x000D_
+Linden_x000D_
+Randburg
+Randburg</t>
+  </si>
+  <si>
+    <t>The Practice_x000D_
+57 1st Avenue_x000D_
+Linden_x000D_
+Randburg</t>
+  </si>
+  <si>
+    <t>Therm Guard</t>
+  </si>
+  <si>
+    <t>eric@thermguard.co.za</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Therm Guard_x000D_
+106 Plane road_x000D_
+Spartan, Kempton Park_x000D_
+1619
+Spartan 1619
+Kempton Park</t>
+  </si>
+  <si>
+    <t>Therm Guard_x000D_
+106 Plane road_x000D_
+Spartan, Kempton Park_x000D_
+1619</t>
+  </si>
+  <si>
+    <t>Thuthukani Advisory &amp; Consulting (Pty) Lt</t>
+  </si>
+  <si>
+    <t>Phone: 0118250647</t>
+  </si>
+  <si>
+    <t>admin@thuthukisa.co.za</t>
+  </si>
+  <si>
+    <t>Thuthukani Advisory &amp; Consulting (Pty) Lt_x000D_
+92 Koot Road_x000D_
+Withok Estate AH_x000D_
+Brakpan_x000D_
+1541
+Brakpan 1541</t>
+  </si>
+  <si>
+    <t>Thuthukani Advisory &amp; Consulting (Pty) Lt_x000D_
+92 Koot Road_x000D_
+Withok Estate AH_x000D_
+Brakpan_x000D_
+1541</t>
+  </si>
+  <si>
+    <t>Brakpan</t>
+  </si>
+  <si>
+    <t>1541</t>
+  </si>
+  <si>
+    <t>Thuthukisa Institute NPC</t>
+  </si>
+  <si>
+    <t>Tracy</t>
+  </si>
+  <si>
+    <t>Phone: 0798352158</t>
+  </si>
+  <si>
+    <t>tracy@sparksa.co.za</t>
+  </si>
+  <si>
+    <t>Vuka Africa Consulting</t>
+  </si>
+  <si>
+    <t>mummyr@vukaafrica.co.za</t>
+  </si>
+  <si>
+    <t>Bokgadi Riba</t>
+  </si>
+  <si>
+    <t>Vuka Africa Consulting_x000D_
+798 Arcadia Street_x000D_
+Arcadia, Pretoria 0126
+Arcadia 0126
+Pretoria</t>
+  </si>
+  <si>
+    <t>Vuka Africa Consulting_x000D_
+798 Arcadia Street_x000D_
+Arcadia, Pretoria 0126</t>
+  </si>
+  <si>
+    <t>Arcadia</t>
+  </si>
+  <si>
+    <t>0126</t>
+  </si>
+  <si>
+    <t>Pretoria</t>
+  </si>
+  <si>
+    <t>Riba</t>
+  </si>
+  <si>
+    <t>Bokgadi</t>
+  </si>
+  <si>
+    <t>Washesha Connections</t>
+  </si>
+  <si>
+    <t>Whoz Who</t>
+  </si>
+  <si>
+    <t>paul.mahlase@easybiztech.co.za</t>
+  </si>
+  <si>
+    <t>Paul Mahlase</t>
+  </si>
+  <si>
+    <t>Whoz Who_x000D_
+Paul Mahlase</t>
+  </si>
+  <si>
+    <t>Mahlase</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Zama Mabuza</t>
+  </si>
+  <si>
+    <t>Phone: +27 823925809
+Mobile: +27 823925809</t>
+  </si>
+  <si>
+    <t>zcmabuza@gmail.com</t>
+  </si>
+  <si>
+    <t>Zamakhosi Mabuza</t>
+  </si>
+  <si>
+    <t>+27 823925809</t>
+  </si>
+  <si>
+    <t>Mabuza</t>
+  </si>
+  <si>
+    <t>Zamakhosi</t>
+  </si>
+  <si>
+    <t>Zama Mabuza Customer</t>
+  </si>
+  <si>
+    <t>Mr Zama Mabuza Customer</t>
+  </si>
+  <si>
+    <t>Zama</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,7 +1173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,18 +1181,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -220,16 +1362,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -351,59 +1497,2960 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetData/>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
-  </ignoredErrors>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" customWidth="1"/>
+    <col min="5" max="6" width="36.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="12" style="2" customWidth="1"/>
+    <col min="9" max="9" width="36.140625" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="12" style="2" customWidth="1"/>
+    <col min="13" max="19" width="7.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="36.140625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="18.85546875" style="2" customWidth="1"/>
+    <col min="22" max="22" width="7.7109375" style="2" customWidth="1"/>
+    <col min="23" max="23" width="9.42578125" style="2" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="36.140625" style="2" customWidth="1"/>
+    <col min="26" max="29" width="7.7109375" style="2" customWidth="1"/>
+    <col min="30" max="30" width="13.7109375" style="2" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" style="2" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
+      <c r="AA2" s="3"/>
+      <c r="AB2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3"/>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3">
+        <v>114531815</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="3"/>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3">
+        <v>118232820</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3">
+        <v>785659761</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="3"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3">
+        <v>118248351</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="3"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3">
+        <v>114622581</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE23" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3">
+        <v>280070104</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AE24" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3">
+        <v>130071367</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3">
+        <v>828053565</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE27" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3">
+        <v>113155444</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE28" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3">
+        <v>114740705</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="AE30" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3">
+        <v>111000088</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3">
+        <v>126641340</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="3"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="3"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3"/>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AE36" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="3"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE37" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3">
+        <v>116680100</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE39" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3">
+        <v>614731733</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE40" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3">
+        <v>117934484</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="3"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3"/>
+      <c r="AB41" s="3"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE41" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="AE42" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
+      <c r="N43" s="3"/>
+      <c r="O43" s="3"/>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="3"/>
+      <c r="R43" s="3"/>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+      <c r="AC43" s="3"/>
+      <c r="AD43" s="3"/>
+      <c r="AE43" s="3"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3"/>
+      <c r="T44" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+      <c r="AC44" s="3"/>
+      <c r="AD44" s="3"/>
+      <c r="AE44" s="3"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="N45" s="3"/>
+      <c r="O45" s="3"/>
+      <c r="P45" s="3"/>
+      <c r="Q45" s="3"/>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3"/>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+      <c r="AC45" s="3"/>
+      <c r="AD45" s="3"/>
+      <c r="AE45" s="3"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
+      <c r="N46" s="3"/>
+      <c r="O46" s="3"/>
+      <c r="P46" s="3"/>
+      <c r="Q46" s="3"/>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+      <c r="AC46" s="3"/>
+      <c r="AD46" s="3"/>
+      <c r="AE46" s="3"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
+      <c r="N47" s="3"/>
+      <c r="O47" s="3"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="U47" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+      <c r="AC47" s="3"/>
+      <c r="AD47" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE47" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3">
+        <v>117820393</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="3"/>
+      <c r="O48" s="3"/>
+      <c r="P48" s="3"/>
+      <c r="Q48" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3"/>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+      <c r="AC48" s="3"/>
+      <c r="AD48" s="3"/>
+      <c r="AE48" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="3"/>
+      <c r="O49" s="3"/>
+      <c r="P49" s="3"/>
+      <c r="Q49" s="3"/>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+      <c r="AC49" s="3"/>
+      <c r="AD49" s="3"/>
+      <c r="AE49" s="3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3">
+        <v>118250647</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="3"/>
+      <c r="O50" s="3"/>
+      <c r="P50" s="3"/>
+      <c r="Q50" s="3"/>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="U50" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="Z50" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="AC50" s="3"/>
+      <c r="AD50" s="3"/>
+      <c r="AE50" s="3"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="3"/>
+      <c r="O51" s="3"/>
+      <c r="P51" s="3"/>
+      <c r="Q51" s="3"/>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3"/>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+      <c r="AC51" s="3"/>
+      <c r="AD51" s="3"/>
+      <c r="AE51" s="3"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3">
+        <v>798352158</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="3"/>
+      <c r="O52" s="3"/>
+      <c r="P52" s="3"/>
+      <c r="Q52" s="3"/>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3"/>
+      <c r="AB52" s="3"/>
+      <c r="AC52" s="3"/>
+      <c r="AD52" s="3"/>
+      <c r="AE52" s="3"/>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="3"/>
+      <c r="O53" s="3"/>
+      <c r="P53" s="3"/>
+      <c r="Q53" s="3"/>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="U53" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="X53" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3"/>
+      <c r="AC53" s="3"/>
+      <c r="AD53" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="AE53" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="3"/>
+      <c r="O54" s="3"/>
+      <c r="P54" s="3"/>
+      <c r="Q54" s="3"/>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3"/>
+      <c r="T54" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="U54" s="3"/>
+      <c r="V54" s="3"/>
+      <c r="W54" s="3"/>
+      <c r="X54" s="3"/>
+      <c r="Y54" s="3"/>
+      <c r="Z54" s="3"/>
+      <c r="AA54" s="3"/>
+      <c r="AB54" s="3"/>
+      <c r="AC54" s="3"/>
+      <c r="AD54" s="3"/>
+      <c r="AE54" s="3"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE55" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE56" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="3"/>
+      <c r="AB57" s="3"/>
+      <c r="AC57" s="3"/>
+      <c r="AD57" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>